--- a/lista.XLSX
+++ b/lista.XLSX
@@ -916,7 +916,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,11 @@
           <t>2314296138</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n"/>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -1120,7 +1124,16 @@
           <t>2237349501</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n"/>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>NÃO FOI SALVO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sem Material Vinculado</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="2" t="inlineStr">

--- a/lista.XLSX
+++ b/lista.XLSX
@@ -439,7 +439,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/lista.XLSX
+++ b/lista.XLSX
@@ -439,7 +439,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>Forbidden TSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>VALORADA</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>NÃO FOI SALVO</t>
+          <t>VALORADA ANTERIORMENTE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1157,7 +1157,11 @@
           <t>2306002704</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n"/>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -1165,7 +1169,11 @@
           <t>2306003010</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n"/>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -1173,7 +1181,11 @@
           <t>2306290712</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n"/>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -1181,7 +1193,11 @@
           <t>2306290469</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n"/>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -1189,7 +1205,11 @@
           <t>2306289713</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n"/>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -1197,7 +1217,11 @@
           <t>2306003727</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n"/>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -1205,7 +1229,11 @@
           <t>2306004023</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n"/>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -1213,7 +1241,11 @@
           <t>2306004853</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n"/>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -1221,7 +1253,11 @@
           <t>2306005149</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n"/>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -1229,7 +1265,11 @@
           <t>2306005764</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n"/>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -1237,7 +1277,11 @@
           <t>2306287190</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n"/>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -1245,7 +1289,11 @@
           <t>2306288619</t>
         </is>
       </c>
-      <c r="B61" s="2" t="n"/>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -1253,7 +1301,11 @@
           <t>2306288939</t>
         </is>
       </c>
-      <c r="B62" s="2" t="n"/>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -1261,7 +1313,11 @@
           <t>2306289323</t>
         </is>
       </c>
-      <c r="B63" s="2" t="n"/>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -1269,7 +1325,11 @@
           <t>2306287483</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n"/>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -1277,7 +1337,11 @@
           <t>2306287919</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n"/>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -1285,7 +1349,11 @@
           <t>2306288198</t>
         </is>
       </c>
-      <c r="B66" s="2" t="n"/>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -1293,7 +1361,11 @@
           <t>2306292657</t>
         </is>
       </c>
-      <c r="B67" s="2" t="n"/>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="18.75" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -1301,7 +1373,11 @@
           <t>2306291252</t>
         </is>
       </c>
-      <c r="B68" s="2" t="n"/>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -1309,7 +1385,11 @@
           <t>2306291736</t>
         </is>
       </c>
-      <c r="B69" s="2" t="n"/>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -1317,7 +1397,11 @@
           <t>2306293527</t>
         </is>
       </c>
-      <c r="B70" s="2" t="n"/>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="18.75" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -1325,7 +1409,11 @@
           <t>2306293814</t>
         </is>
       </c>
-      <c r="B71" s="2" t="n"/>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -1333,7 +1421,11 @@
           <t>2306291995</t>
         </is>
       </c>
-      <c r="B72" s="2" t="n"/>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -1341,7 +1433,11 @@
           <t>2306292252</t>
         </is>
       </c>
-      <c r="B73" s="2" t="n"/>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -1349,7 +1445,11 @@
           <t>2306294099</t>
         </is>
       </c>
-      <c r="B74" s="2" t="n"/>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="18.75" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -1357,7 +1457,11 @@
           <t>2306294970</t>
         </is>
       </c>
-      <c r="B75" s="2" t="n"/>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="18.75" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -1365,7 +1469,11 @@
           <t>2306621379</t>
         </is>
       </c>
-      <c r="B76" s="2" t="n"/>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -1373,7 +1481,11 @@
           <t>2306621722</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n"/>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="18.75" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -1381,7 +1493,11 @@
           <t>2306621980</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n"/>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -1389,7 +1505,11 @@
           <t>2306622284</t>
         </is>
       </c>
-      <c r="B79" s="2" t="n"/>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="18.75" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -1397,7 +1517,11 @@
           <t>2306628695</t>
         </is>
       </c>
-      <c r="B80" s="2" t="n"/>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="18.75" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -1405,7 +1529,11 @@
           <t>2306628923</t>
         </is>
       </c>
-      <c r="B81" s="2" t="n"/>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -1413,7 +1541,11 @@
           <t>2306629930</t>
         </is>
       </c>
-      <c r="B82" s="2" t="n"/>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -1421,7 +1553,11 @@
           <t>2306629676</t>
         </is>
       </c>
-      <c r="B83" s="2" t="n"/>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -1429,7 +1565,11 @@
           <t>2306629209</t>
         </is>
       </c>
-      <c r="B84" s="2" t="n"/>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -1437,7 +1577,11 @@
           <t>2306630107</t>
         </is>
       </c>
-      <c r="B85" s="2" t="n"/>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -1445,7 +1589,11 @@
           <t>2306630567</t>
         </is>
       </c>
-      <c r="B86" s="2" t="n"/>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -1453,7 +1601,11 @@
           <t>2306294459</t>
         </is>
       </c>
-      <c r="B87" s="2" t="n"/>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -1461,7 +1613,11 @@
           <t>2306618753</t>
         </is>
       </c>
-      <c r="B88" s="2" t="n"/>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -1469,7 +1625,11 @@
           <t>2315193850</t>
         </is>
       </c>
-      <c r="B89" s="2" t="n"/>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -1517,7 +1677,11 @@
           <t>2315661515</t>
         </is>
       </c>
-      <c r="B95" s="2" t="n"/>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -1525,7 +1689,11 @@
           <t>2315606614</t>
         </is>
       </c>
-      <c r="B96" s="2" t="n"/>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -1541,7 +1709,11 @@
           <t>2315321548</t>
         </is>
       </c>
-      <c r="B98" s="2" t="n"/>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -1565,7 +1737,11 @@
           <t>2307716368</t>
         </is>
       </c>
-      <c r="B101" s="2" t="n"/>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
@@ -1573,7 +1749,11 @@
           <t>2313273925</t>
         </is>
       </c>
-      <c r="B102" s="2" t="n"/>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
@@ -1581,7 +1761,11 @@
           <t>2313272801</t>
         </is>
       </c>
-      <c r="B103" s="2" t="n"/>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
@@ -1589,7 +1773,11 @@
           <t>2313273443</t>
         </is>
       </c>
-      <c r="B104" s="2" t="n"/>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="18.75" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
@@ -1597,7 +1785,11 @@
           <t>2313274529</t>
         </is>
       </c>
-      <c r="B105" s="2" t="n"/>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
@@ -1605,7 +1797,11 @@
           <t>2313274934</t>
         </is>
       </c>
-      <c r="B106" s="2" t="n"/>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="18.75" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
@@ -1613,7 +1809,11 @@
           <t>2313275295</t>
         </is>
       </c>
-      <c r="B107" s="2" t="n"/>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="18.75" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
@@ -1621,7 +1821,11 @@
           <t>2313270763</t>
         </is>
       </c>
-      <c r="B108" s="2" t="n"/>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="18.75" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
@@ -1629,7 +1833,11 @@
           <t>2313271182</t>
         </is>
       </c>
-      <c r="B109" s="2" t="n"/>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="18.75" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
@@ -1637,7 +1845,11 @@
           <t>2313271654</t>
         </is>
       </c>
-      <c r="B110" s="2" t="n"/>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="18.75" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
@@ -1645,7 +1857,11 @@
           <t>2313272032</t>
         </is>
       </c>
-      <c r="B111" s="2" t="n"/>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="18.75" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
@@ -1653,7 +1869,11 @@
           <t>2313269299</t>
         </is>
       </c>
-      <c r="B112" s="2" t="n"/>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="18.75" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
@@ -1661,7 +1881,11 @@
           <t>2313270109</t>
         </is>
       </c>
-      <c r="B113" s="2" t="n"/>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Forbidden TSE</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="18.75" customHeight="1">
       <c r="A114" s="2" t="inlineStr">

--- a/lista.XLSX
+++ b/lista.XLSX
@@ -1901,7 +1901,11 @@
           <t>2315612674</t>
         </is>
       </c>
-      <c r="B115" s="2" t="n"/>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="18.75" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
@@ -1917,7 +1921,11 @@
           <t>2315618370</t>
         </is>
       </c>
-      <c r="B117" s="2" t="n"/>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="18.75" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
@@ -1925,7 +1933,11 @@
           <t>2307954875</t>
         </is>
       </c>
-      <c r="B118" s="2" t="n"/>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="18.75" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
@@ -1949,7 +1961,11 @@
           <t>2315654333</t>
         </is>
       </c>
-      <c r="B121" s="2" t="n"/>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="18.75" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
@@ -1957,7 +1973,11 @@
           <t>2314624042</t>
         </is>
       </c>
-      <c r="B122" s="2" t="n"/>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="18.75" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
@@ -1981,7 +2001,16 @@
           <t>2305226670</t>
         </is>
       </c>
-      <c r="B125" s="2" t="n"/>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sem Material Vinculado</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="18.75" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
@@ -1989,7 +2018,11 @@
           <t>2305227205</t>
         </is>
       </c>
-      <c r="B126" s="2" t="n"/>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="18.75" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
@@ -1997,7 +2030,11 @@
           <t>2314641830</t>
         </is>
       </c>
-      <c r="B127" s="2" t="n"/>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="18.75" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
@@ -2005,7 +2042,11 @@
           <t>2308749450</t>
         </is>
       </c>
-      <c r="B128" s="2" t="n"/>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="18.75" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
@@ -2021,7 +2062,11 @@
           <t>2315192132</t>
         </is>
       </c>
-      <c r="B130" s="2" t="n"/>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="18.75" customHeight="1">
       <c r="A131" s="2" t="inlineStr">
@@ -2037,7 +2082,11 @@
           <t>2313863866</t>
         </is>
       </c>
-      <c r="B132" s="2" t="n"/>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="18.75" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
@@ -2045,7 +2094,11 @@
           <t>2315299691</t>
         </is>
       </c>
-      <c r="B133" s="2" t="n"/>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="18.75" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
@@ -2077,7 +2130,11 @@
           <t>2314788485</t>
         </is>
       </c>
-      <c r="B137" s="2" t="n"/>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="18.75" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
@@ -2085,7 +2142,11 @@
           <t>2314788797</t>
         </is>
       </c>
-      <c r="B138" s="2" t="n"/>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="18.75" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
@@ -2093,7 +2154,11 @@
           <t>2314789086</t>
         </is>
       </c>
-      <c r="B139" s="2" t="n"/>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="18.75" customHeight="1">
       <c r="A140" s="2" t="inlineStr">
@@ -2101,7 +2166,11 @@
           <t>2314789423</t>
         </is>
       </c>
-      <c r="B140" s="2" t="n"/>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="18.75" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
@@ -2109,7 +2178,11 @@
           <t>2314789650</t>
         </is>
       </c>
-      <c r="B141" s="2" t="n"/>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="18.75" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
@@ -2117,7 +2190,11 @@
           <t>2314789929</t>
         </is>
       </c>
-      <c r="B142" s="2" t="n"/>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="18.75" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
@@ -2125,7 +2202,11 @@
           <t>2314790137</t>
         </is>
       </c>
-      <c r="B143" s="2" t="n"/>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="18.75" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
@@ -2133,7 +2214,11 @@
           <t>2314790432</t>
         </is>
       </c>
-      <c r="B144" s="2" t="n"/>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="18.75" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
@@ -2141,7 +2226,11 @@
           <t>2314790787</t>
         </is>
       </c>
-      <c r="B145" s="2" t="n"/>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="146" ht="18.75" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
@@ -2157,7 +2246,11 @@
           <t>2312756658</t>
         </is>
       </c>
-      <c r="B147" s="2" t="n"/>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="148" ht="18.75" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
@@ -2173,7 +2266,11 @@
           <t>2315524520</t>
         </is>
       </c>
-      <c r="B149" s="2" t="n"/>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>VALORADA ANTERIORMENTE</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="18.75" customHeight="1">
       <c r="A150" s="2" t="inlineStr">

--- a/lista.XLSX
+++ b/lista.XLSX
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgpapais\Documents\Meus Projetos\val\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96CD01-485B-4869-ABA4-A2AFBACAEFE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,316 +407,910 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>2325690532</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2322853624</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2330901861</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2330151940</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2331512806</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>2329927897</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2331512572</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2329777616</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2331383062</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2331705731</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2330545234</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>2330080629</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2331706158</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2329923410</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>2331644885</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>2329841100</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>2330754866</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>2330752323</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>2328525006</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>2329926214</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>2329272708</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>2330117994</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>2330556888</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>2329775640</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>2329775640</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>2330080526</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>2329926385</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>2329924541</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>2331752046</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>2330553758</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>2329867809</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>2331750146</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>2329923498</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>2329193520</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>2329370412</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>2329193520</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>2331867185</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>2331646104</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>2332113796</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>2331867814</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
         <v>2330988554</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>2332114059</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>2331866992</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>2332617764</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>2331644563</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>2331646359</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>2332503328</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>2332416388</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>2330078278</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>2332422216</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>2331866154</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
         <v>2332414615</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>2332421237</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>2331752188</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>2331750212</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>2332621326</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>2332414958</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>2331645778</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
         <v>2331866791</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
         <v>2332622424</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/lista.XLSX
+++ b/lista.XLSX
@@ -406,7 +406,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Já Salvo</t>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Já Salvo</t>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Já Salvo</t>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
@@ -442,7 +442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Já Salvo</t>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Já Salvo</t>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
@@ -469,6 +469,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -493,6 +503,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -505,6 +520,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -529,6 +554,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +571,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -553,6 +588,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -565,6 +605,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -577,6 +622,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -589,6 +639,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -601,6 +656,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -613,6 +673,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -625,6 +690,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -637,6 +707,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -649,6 +724,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -661,6 +741,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -673,6 +758,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -685,6 +775,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -697,6 +792,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -709,6 +809,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -721,6 +826,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -733,6 +843,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -745,6 +860,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -757,6 +877,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -769,6 +894,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -781,6 +911,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -793,6 +928,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -805,6 +945,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -817,6 +962,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -829,6 +979,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -841,6 +996,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -853,6 +1013,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -865,6 +1030,11 @@
           <t>Salvo</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -875,6 +1045,11 @@
       <c r="B40" t="inlineStr">
         <is>
           <t>Salvo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO DEFINITIVA</t>
         </is>
       </c>
     </row>
